--- a/Artefatos/17. Análise dos Eventos para cada Cenário.xlsx
+++ b/Artefatos/17. Análise dos Eventos para cada Cenário.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Poison\Desktop\ACS\OPE\Artefatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Poison\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -166,9 +166,6 @@
     <t>Gerente verifica produto</t>
   </si>
   <si>
-    <t>Gerentesolicita devolução ou troca</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gerente devolve produto </t>
   </si>
   <si>
@@ -193,13 +190,16 @@
     <t>Gerente recusa proposta</t>
   </si>
   <si>
-    <t>Escritório da Gerencia - Atender cliente</t>
-  </si>
-  <si>
     <t>Gerente recebe convidados</t>
   </si>
   <si>
     <t>OBS: Outras planilhas no menu abaixo</t>
+  </si>
+  <si>
+    <t>Escritório da Gerencia - Fechar contrato</t>
+  </si>
+  <si>
+    <t>Escritório da Gerencia - Realizar evento</t>
   </si>
 </sst>
 </file>
@@ -238,7 +238,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -305,6 +305,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="19">
     <border>
@@ -538,7 +544,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -564,52 +570,97 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -624,46 +675,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -690,6 +705,12 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -699,17 +720,50 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -722,45 +776,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -786,6 +801,986 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>454268</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>8792</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>414703</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>27842</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Retângulo 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="454268" y="3503734"/>
+          <a:ext cx="1271954" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>Salão - Atender cliente</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>65941</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>8792</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1337895</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>27842</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Retângulo 6">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1995789" y="3504053"/>
+          <a:ext cx="1271954" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>Balcão - Atender cliente</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>732307</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>8792</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>310585</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>27842</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Retângulo 7">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5073702" y="3518003"/>
+          <a:ext cx="1272725" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>Escritório da Gerência - Compra</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>56485</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>11322</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1333855</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>30372</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Retângulo 8">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1986551" y="4473033"/>
+          <a:ext cx="1277370" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Escritório da Gerência - Devolução ou troca</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>734921</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>16119</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>308621</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>35169</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Retângulo 9">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5075008" y="4463880"/>
+          <a:ext cx="1271635" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Escritório da Gerência - Realizar</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> evento</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1606506</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>16119</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>468221</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>35169</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Retângulo 10">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3536354" y="4463880"/>
+          <a:ext cx="1271954" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Escritório da Gerência - Fechar contrato</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>438977</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>8793</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>399412</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>27843</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Retângulo 11">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="438977" y="4456554"/>
+          <a:ext cx="1277370" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Escritório da Gerência - Solicitar cancelamento</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1592437</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>16337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>461966</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>35387</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Retângulo 12">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3522503" y="3525548"/>
+          <a:ext cx="1280858" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>Cozinha - Preparar pedido</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Seta para a Esquerda 2">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="742950" y="4000500"/>
+          <a:ext cx="1552575" cy="866775"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" b="1" i="1"/>
+            <a:t>VOLTAR</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100" b="1" i="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>16566</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>157370</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>343315</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>71645</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Seta para a Esquerda 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="629479" y="2161761"/>
+          <a:ext cx="1552575" cy="866775"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" b="1" i="1"/>
+            <a:t>VOLTAR</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100" b="1" i="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>942975</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Seta para a Esquerda 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="3733800"/>
+          <a:ext cx="1552575" cy="866775"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" b="1" i="1"/>
+            <a:t>VOLTAR</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100" b="1" i="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>942975</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Seta para a Esquerda 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1285875" y="2276475"/>
+          <a:ext cx="1552575" cy="866775"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" b="1" i="1"/>
+            <a:t>VOLTAR</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100" b="1" i="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Seta para a Esquerda 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1409700" y="2247900"/>
+          <a:ext cx="1552575" cy="866775"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" b="1" i="1"/>
+            <a:t>VOLTAR</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100" b="1" i="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>16565</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>149086</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>956227</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>63361</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Seta para a Esquerda 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1242391" y="2824369"/>
+          <a:ext cx="1552575" cy="866775"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" b="1" i="1"/>
+            <a:t>VOLTAR</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100" b="1" i="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Seta para a Esquerda 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1485900" y="1952625"/>
+          <a:ext cx="1552575" cy="866775"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" b="1" i="1"/>
+            <a:t>VOLTAR</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100" b="1" i="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1077,12 +2072,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
     <col min="4" max="4" width="36.140625" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
@@ -1093,10 +2089,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="32"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1123,10 +2119,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="38" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="3">
@@ -1135,18 +2131,18 @@
       <c r="D2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="16"/>
+      <c r="E2" s="9"/>
       <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="18"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:10" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
-      <c r="B3" s="12"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="39"/>
       <c r="C3" s="3">
         <v>2</v>
       </c>
@@ -1156,33 +2152,33 @@
       <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="18"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
-      <c r="B4" s="12"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="3">
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="19"/>
+      <c r="F4" s="12"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="18"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
-      <c r="B5" s="12"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="3">
         <v>4</v>
       </c>
@@ -1193,14 +2189,14 @@
         <v>13</v>
       </c>
       <c r="F5" s="5"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="18"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
-      <c r="B6" s="12"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="3">
         <v>5</v>
       </c>
@@ -1211,14 +2207,14 @@
         <v>23</v>
       </c>
       <c r="F6" s="5"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="18"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="11"/>
     </row>
     <row r="7" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="3">
         <v>6</v>
       </c>
@@ -1229,14 +2225,14 @@
         <v>24</v>
       </c>
       <c r="F7" s="5"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="18"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="11"/>
     </row>
     <row r="8" spans="1:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
-      <c r="B8" s="14" t="s">
+      <c r="A8" s="34"/>
+      <c r="B8" s="36" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="3">
@@ -1245,51 +2241,55 @@
       <c r="D8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="20" t="s">
+      <c r="E8" s="9"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="18"/>
+      <c r="J8" s="11"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="24"/>
-      <c r="B9" s="13"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="37"/>
       <c r="C9" s="3">
         <v>8</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="20" t="s">
+      <c r="E9" s="9"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="18"/>
+      <c r="J9" s="11"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="74" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="74"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
+      <c r="A11" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B2:B7"/>
+    <mergeCell ref="A11:G11"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1297,12 +2297,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
     <col min="4" max="4" width="35.85546875" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" customWidth="1"/>
@@ -1311,11 +2312,11 @@
     <col min="10" max="10" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="32"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1342,10 +2343,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="38" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="3">
@@ -1354,18 +2355,18 @@
       <c r="D2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="16"/>
+      <c r="E2" s="9"/>
       <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="18"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:10" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
-      <c r="B3" s="12"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="39"/>
       <c r="C3" s="3">
         <v>2</v>
       </c>
@@ -1375,33 +2376,33 @@
       <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="18"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="26"/>
-      <c r="B4" s="12"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="3">
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="19"/>
+      <c r="F4" s="12"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="18"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
-      <c r="B5" s="12"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="3">
         <v>4</v>
       </c>
@@ -1412,14 +2413,14 @@
         <v>13</v>
       </c>
       <c r="F5" s="5"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="18"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:10" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="26"/>
-      <c r="B6" s="12"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="3">
         <v>5</v>
       </c>
@@ -1430,14 +2431,14 @@
         <v>23</v>
       </c>
       <c r="F6" s="5"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="18"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="11"/>
     </row>
     <row r="7" spans="1:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="3">
         <v>6</v>
       </c>
@@ -1448,14 +2449,14 @@
         <v>24</v>
       </c>
       <c r="F7" s="5"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="18"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="11"/>
     </row>
     <row r="8" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
-      <c r="B8" s="14" t="s">
+      <c r="A8" s="41"/>
+      <c r="B8" s="36" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="3">
@@ -1464,32 +2465,32 @@
       <c r="D8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="20" t="s">
+      <c r="E8" s="9"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="18"/>
+      <c r="J8" s="11"/>
     </row>
     <row r="9" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="27"/>
-      <c r="B9" s="13"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="37"/>
       <c r="C9" s="3">
         <v>8</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="20" t="s">
+      <c r="E9" s="9"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="18"/>
+      <c r="J9" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1499,6 +2500,7 @@
     <mergeCell ref="B8:B9"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1506,8 +2508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1522,112 +2524,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="32">
+      <c r="C2" s="17">
         <v>1</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="35" t="s">
+      <c r="E2" s="19"/>
+      <c r="F2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="22"/>
     </row>
     <row r="3" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="42"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="32">
+      <c r="A3" s="44"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="17">
         <v>2</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="37"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="22"/>
     </row>
     <row r="4" spans="1:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="42"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="32">
+      <c r="A4" s="44"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="17">
         <v>3</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="38"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="37"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="22"/>
     </row>
     <row r="5" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="42"/>
-      <c r="B5" s="29" t="s">
+      <c r="A5" s="44"/>
+      <c r="B5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="17">
         <v>7</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="41" t="s">
+      <c r="E5" s="19"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="37"/>
+      <c r="J5" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1636,6 +2638,7 @@
     <mergeCell ref="B2:B4"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1643,12 +2646,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
     <col min="4" max="4" width="34.85546875" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" customWidth="1"/>
@@ -1658,10 +2662,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
+      <c r="B1" s="46"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1688,10 +2692,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="38" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="3">
@@ -1700,18 +2704,18 @@
       <c r="D2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="16"/>
+      <c r="E2" s="9"/>
       <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="18"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
-      <c r="B3" s="12"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="39"/>
       <c r="C3" s="3">
         <v>2</v>
       </c>
@@ -1721,33 +2725,33 @@
       <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="18"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:10" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
-      <c r="B4" s="12"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="3">
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="19"/>
+      <c r="F4" s="12"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="18"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="45"/>
-      <c r="B5" s="12"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="3">
         <v>4</v>
       </c>
@@ -1758,14 +2762,14 @@
         <v>13</v>
       </c>
       <c r="F5" s="5"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="18"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="45"/>
-      <c r="B6" s="12"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="3">
         <v>5</v>
       </c>
@@ -1776,14 +2780,14 @@
         <v>23</v>
       </c>
       <c r="F6" s="5"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="18"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="11"/>
     </row>
     <row r="7" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="45"/>
-      <c r="B7" s="14" t="s">
+      <c r="A7" s="48"/>
+      <c r="B7" s="36" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="3">
@@ -1792,32 +2796,32 @@
       <c r="D7" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="20" t="s">
+      <c r="E7" s="9"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="18"/>
+      <c r="J7" s="11"/>
     </row>
     <row r="8" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="46"/>
-      <c r="B8" s="13"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="37"/>
       <c r="C8" s="3">
         <v>7</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="20" t="s">
+      <c r="E8" s="9"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="18"/>
+      <c r="J8" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1827,6 +2831,7 @@
     <mergeCell ref="B7:B8"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1834,13 +2839,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="32.85546875" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" customWidth="1"/>
     <col min="6" max="6" width="16.140625" customWidth="1"/>
@@ -1851,10 +2856,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
+      <c r="B1" s="46"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1881,10 +2886,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="38" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="3">
@@ -1893,18 +2898,18 @@
       <c r="D2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="16"/>
+      <c r="E2" s="9"/>
       <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="18"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="48"/>
-      <c r="B3" s="12"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="39"/>
       <c r="C3" s="3">
         <v>2</v>
       </c>
@@ -1914,15 +2919,15 @@
       <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="18"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="48"/>
-      <c r="B4" s="14" t="s">
+      <c r="A4" s="51"/>
+      <c r="B4" s="36" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="3">
@@ -1931,32 +2936,32 @@
       <c r="D4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="20" t="s">
+      <c r="E4" s="9"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="18"/>
+      <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
-      <c r="B5" s="13"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="3">
         <v>7</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="20" t="s">
+      <c r="E5" s="9"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="18"/>
+      <c r="J5" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1966,6 +2971,7 @@
     <mergeCell ref="B4:B5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1973,13 +2979,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
     <col min="4" max="4" width="33.140625" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
@@ -1989,112 +2995,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="32">
+      <c r="C2" s="17">
         <v>1</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="35" t="s">
+      <c r="E2" s="19"/>
+      <c r="F2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="22"/>
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="50"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="32">
+      <c r="A3" s="53"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="17">
         <v>2</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="23"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="22"/>
+    </row>
+    <row r="4" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="53"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="17">
+        <v>3</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E4" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="22"/>
+    </row>
+    <row r="5" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="53"/>
+      <c r="B5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="17">
+        <v>7</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="37"/>
-    </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="50"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="32">
-        <v>3</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="38"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="37"/>
-    </row>
-    <row r="5" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
-      <c r="B5" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="32">
-        <v>7</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="37"/>
+      <c r="J5" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2103,6 +3109,7 @@
     <mergeCell ref="B2:B4"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2111,11 +3118,12 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J7" sqref="A1:J7"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="34.42578125" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" customWidth="1"/>
@@ -2126,10 +3134,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
+      <c r="B1" s="55"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2156,118 +3164,118 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="38" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="16"/>
+        <v>48</v>
+      </c>
+      <c r="E2" s="9"/>
       <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="55"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="27"/>
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="52"/>
-      <c r="B3" s="12"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="39"/>
       <c r="C3" s="3">
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="55"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="27"/>
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="52"/>
-      <c r="B4" s="12"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="3">
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="16"/>
+      <c r="F4" s="9"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="55"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="27"/>
     </row>
     <row r="5" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="52"/>
-      <c r="B5" s="12"/>
+      <c r="A5" s="57"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="3">
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="5"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="55"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="27"/>
     </row>
     <row r="6" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="52"/>
-      <c r="B6" s="14" t="s">
+      <c r="A6" s="57"/>
+      <c r="B6" s="36" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="3">
         <v>7</v>
       </c>
-      <c r="D6" s="56" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20" t="s">
+      <c r="D6" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="55"/>
+      <c r="J6" s="27"/>
     </row>
     <row r="7" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="53"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="58"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="3">
         <v>8</v>
       </c>
-      <c r="D7" s="57" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20" t="s">
+      <c r="D7" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="55"/>
+      <c r="J7" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2277,6 +3285,7 @@
     <mergeCell ref="B6:B7"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2285,12 +3294,12 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="4" max="4" width="30.42578125" customWidth="1"/>
     <col min="5" max="5" width="12.140625" customWidth="1"/>
@@ -2302,10 +3311,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
+      <c r="B1" s="55"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2332,8 +3341,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
-        <v>55</v>
+      <c r="A2" s="71" t="s">
+        <v>57</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>9</v>
@@ -2342,42 +3351,42 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="16"/>
+        <v>54</v>
+      </c>
+      <c r="E2" s="9"/>
       <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="55"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="27"/>
     </row>
     <row r="3" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52"/>
-      <c r="B3" s="14" t="s">
+      <c r="A3" s="72"/>
+      <c r="B3" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="72"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="69"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="53"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="73"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2390,5 +3399,6 @@
     <mergeCell ref="C3:D4"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Artefatos/17. Análise dos Eventos para cada Cenário.xlsx
+++ b/Artefatos/17. Análise dos Eventos para cada Cenário.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Poison\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Poison\Desktop\ACS\OPE\Artefatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -633,35 +633,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -857,7 +857,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="pt-BR" sz="1100"/>
-            <a:t>Salão - Atender cliente</a:t>
+            <a:t>Salão - Atender cliente (aqui)</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2073,7 +2073,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2089,10 +2089,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="31"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2119,10 +2119,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="37" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="3">
@@ -2141,8 +2141,8 @@
       <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:10" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="34"/>
-      <c r="B3" s="39"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="3">
         <v>2</v>
       </c>
@@ -2159,8 +2159,8 @@
       <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="34"/>
-      <c r="B4" s="39"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="3">
         <v>3</v>
       </c>
@@ -2177,8 +2177,8 @@
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="34"/>
-      <c r="B5" s="39"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="3">
         <v>4</v>
       </c>
@@ -2195,8 +2195,8 @@
       <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="34"/>
-      <c r="B6" s="39"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="3">
         <v>5</v>
       </c>
@@ -2213,8 +2213,8 @@
       <c r="J6" s="11"/>
     </row>
     <row r="7" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="34"/>
-      <c r="B7" s="37"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="3">
         <v>6</v>
       </c>
@@ -2231,8 +2231,8 @@
       <c r="J7" s="11"/>
     </row>
     <row r="8" spans="1:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="34"/>
-      <c r="B8" s="36" t="s">
+      <c r="A8" s="33"/>
+      <c r="B8" s="35" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="3">
@@ -2251,8 +2251,8 @@
       <c r="J8" s="11"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="35"/>
-      <c r="B9" s="37"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="3">
         <v>8</v>
       </c>
@@ -2269,15 +2269,15 @@
       <c r="J9" s="11"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2313,10 +2313,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="31"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2346,7 +2346,7 @@
       <c r="A2" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="37" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="3">
@@ -2366,7 +2366,7 @@
     </row>
     <row r="3" spans="1:10" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="41"/>
-      <c r="B3" s="39"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="3">
         <v>2</v>
       </c>
@@ -2384,7 +2384,7 @@
     </row>
     <row r="4" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="41"/>
-      <c r="B4" s="39"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="3">
         <v>3</v>
       </c>
@@ -2402,7 +2402,7 @@
     </row>
     <row r="5" spans="1:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="41"/>
-      <c r="B5" s="39"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="3">
         <v>4</v>
       </c>
@@ -2420,7 +2420,7 @@
     </row>
     <row r="6" spans="1:10" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="41"/>
-      <c r="B6" s="39"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="3">
         <v>5</v>
       </c>
@@ -2438,7 +2438,7 @@
     </row>
     <row r="7" spans="1:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="41"/>
-      <c r="B7" s="37"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="3">
         <v>6</v>
       </c>
@@ -2456,7 +2456,7 @@
     </row>
     <row r="8" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="41"/>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="35" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="3">
@@ -2476,7 +2476,7 @@
     </row>
     <row r="9" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="42"/>
-      <c r="B9" s="37"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="3">
         <v>8</v>
       </c>
@@ -2662,7 +2662,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="46"/>
@@ -2695,7 +2695,7 @@
       <c r="A2" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="37" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="3">
@@ -2715,7 +2715,7 @@
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="48"/>
-      <c r="B3" s="39"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="3">
         <v>2</v>
       </c>
@@ -2733,7 +2733,7 @@
     </row>
     <row r="4" spans="1:10" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="48"/>
-      <c r="B4" s="39"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="3">
         <v>3</v>
       </c>
@@ -2751,7 +2751,7 @@
     </row>
     <row r="5" spans="1:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="48"/>
-      <c r="B5" s="39"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="3">
         <v>4</v>
       </c>
@@ -2769,7 +2769,7 @@
     </row>
     <row r="6" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="48"/>
-      <c r="B6" s="39"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="3">
         <v>5</v>
       </c>
@@ -2787,7 +2787,7 @@
     </row>
     <row r="7" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="48"/>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="35" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="3">
@@ -2807,7 +2807,7 @@
     </row>
     <row r="8" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="49"/>
-      <c r="B8" s="37"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="3">
         <v>7</v>
       </c>
@@ -2856,7 +2856,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="46"/>
@@ -2889,7 +2889,7 @@
       <c r="A2" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="37" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="3">
@@ -2909,7 +2909,7 @@
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="51"/>
-      <c r="B3" s="39"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="3">
         <v>2</v>
       </c>
@@ -2927,7 +2927,7 @@
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="51"/>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="35" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="3">
@@ -2947,7 +2947,7 @@
     </row>
     <row r="5" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="52"/>
-      <c r="B5" s="37"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="3">
         <v>7</v>
       </c>
@@ -3167,7 +3167,7 @@
       <c r="A2" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="37" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="3">
@@ -3187,7 +3187,7 @@
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="57"/>
-      <c r="B3" s="39"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="3">
         <v>2</v>
       </c>
@@ -3205,7 +3205,7 @@
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="57"/>
-      <c r="B4" s="39"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="3">
         <v>3</v>
       </c>
@@ -3223,7 +3223,7 @@
     </row>
     <row r="5" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="57"/>
-      <c r="B5" s="39"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="3">
         <v>4</v>
       </c>
@@ -3241,7 +3241,7 @@
     </row>
     <row r="6" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="57"/>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="35" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="3">
@@ -3261,7 +3261,7 @@
     </row>
     <row r="7" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="58"/>
-      <c r="B7" s="37"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="3">
         <v>8</v>
       </c>
@@ -3364,7 +3364,7 @@
     </row>
     <row r="3" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="72"/>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="35" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="74"/>
@@ -3378,7 +3378,7 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="73"/>
-      <c r="B4" s="37"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="76"/>
       <c r="D4" s="77"/>
       <c r="E4" s="61"/>

--- a/Artefatos/17. Análise dos Eventos para cada Cenário.xlsx
+++ b/Artefatos/17. Análise dos Eventos para cada Cenário.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Poison\Desktop\ACS\OPE\Artefatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Poison\Desktop\OPE\Artefatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D5EDF4-8258-447F-8879-DF46F4639859}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="15315" windowHeight="8010"/>
+    <workbookView xWindow="12210" yWindow="5115" windowWidth="24450" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Salão" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="59">
   <si>
     <t>Capacidades</t>
   </si>
@@ -109,9 +110,6 @@
     <t>Balcão - Atender cliente</t>
   </si>
   <si>
-    <t>Cozinha recebe comanda</t>
-  </si>
-  <si>
     <t>Cozinha verifica pedido</t>
   </si>
   <si>
@@ -172,9 +170,6 @@
     <t>Fornecedor não aceita solicitaçao</t>
   </si>
   <si>
-    <t>Gerente recebe proposta</t>
-  </si>
-  <si>
     <t>Gerente elabora o contrato</t>
   </si>
   <si>
@@ -190,9 +185,6 @@
     <t>Gerente recusa proposta</t>
   </si>
   <si>
-    <t>Gerente recebe convidados</t>
-  </si>
-  <si>
     <t>OBS: Outras planilhas no menu abaixo</t>
   </si>
   <si>
@@ -200,13 +192,25 @@
   </si>
   <si>
     <t>Escritório da Gerencia - Realizar evento</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Garçom envia a comanda</t>
+  </si>
+  <si>
+    <t>Contratante faz proposta</t>
+  </si>
+  <si>
+    <t>Contratante envia lista de convidados</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,6 +235,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -544,7 +556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -777,6 +789,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -822,6 +835,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="Retângulo 1">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -881,6 +899,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="Retângulo 6">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -940,6 +963,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="8" name="Retângulo 7">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -999,6 +1027,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="9" name="Retângulo 8">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -1067,6 +1100,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="10" name="Retângulo 9">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -1147,6 +1185,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="11" name="Retângulo 10">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -1215,6 +1258,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="12" name="Retângulo 11">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -1283,6 +1331,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="13" name="Retângulo 12">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -1347,6 +1400,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Seta para a Esquerda 2">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -1412,6 +1470,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="Seta para a Esquerda 1">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -1477,6 +1540,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="Seta para a Esquerda 1">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -1542,6 +1610,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="Seta para a Esquerda 1">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -1607,6 +1680,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="Seta para a Esquerda 1">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -1672,6 +1750,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="Seta para a Esquerda 1">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -1737,6 +1820,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="Seta para a Esquerda 1">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -1859,6 +1947,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1894,6 +1999,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2069,11 +2191,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2266,11 +2388,13 @@
       <c r="I9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="11"/>
+      <c r="J9" s="11" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B11" s="39"/>
       <c r="C11" s="39"/>
@@ -2294,7 +2418,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2505,11 +2629,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2555,7 +2679,7 @@
     </row>
     <row r="2" spans="1:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="45" t="s">
         <v>9</v>
@@ -2564,7 +2688,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="E2" s="19"/>
       <c r="F2" s="20" t="s">
@@ -2582,7 +2706,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" s="20" t="s">
         <v>11</v>
@@ -2600,7 +2724,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="19" t="s">
         <v>11</v>
@@ -2620,7 +2744,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="19"/>
       <c r="F5" s="23"/>
@@ -2643,7 +2767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2693,7 +2817,7 @@
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="37" t="s">
         <v>9</v>
@@ -2702,7 +2826,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="5" t="s">
@@ -2720,7 +2844,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>11</v>
@@ -2738,7 +2862,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>12</v>
@@ -2756,7 +2880,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>13</v>
@@ -2774,7 +2898,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>23</v>
@@ -2794,7 +2918,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="12"/>
@@ -2812,7 +2936,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="12"/>
@@ -2836,7 +2960,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2887,7 +3011,7 @@
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="37" t="s">
         <v>9</v>
@@ -2896,7 +3020,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="5" t="s">
@@ -2914,7 +3038,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>11</v>
@@ -2934,7 +3058,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="12"/>
@@ -2952,7 +3076,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="12"/>
@@ -2976,7 +3100,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3026,7 +3150,7 @@
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" s="45" t="s">
         <v>9</v>
@@ -3035,7 +3159,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E2" s="19"/>
       <c r="F2" s="20" t="s">
@@ -3053,7 +3177,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" s="20" t="s">
         <v>11</v>
@@ -3071,7 +3195,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" s="19" t="s">
         <v>12</v>
@@ -3091,7 +3215,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E5" s="19"/>
       <c r="F5" s="23"/>
@@ -3114,11 +3238,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3165,7 +3289,7 @@
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="56" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B2" s="37" t="s">
         <v>9</v>
@@ -3174,7 +3298,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="5" t="s">
@@ -3192,7 +3316,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>11</v>
@@ -3210,7 +3334,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>12</v>
@@ -3228,7 +3352,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>13</v>
@@ -3248,7 +3372,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
@@ -3266,7 +3390,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -3290,8 +3414,8 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:B1"/>
@@ -3342,7 +3466,7 @@
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="71" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>9</v>
@@ -3351,7 +3475,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="5" t="s">
@@ -3388,6 +3512,9 @@
       <c r="I4" s="68"/>
       <c r="J4" s="70"/>
     </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D14" s="78"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="E3:F4"/>
@@ -3399,6 +3526,7 @@
     <mergeCell ref="C3:D4"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Artefatos/17. Análise dos Eventos para cada Cenário.xlsx
+++ b/Artefatos/17. Análise dos Eventos para cada Cenário.xlsx
@@ -5,29 +5,28 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Poison\Desktop\OPE\Artefatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Poison\Desktop\OPE\OPE\Artefatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D5EDF4-8258-447F-8879-DF46F4639859}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDFF4A6-298C-4FFA-97D0-7A96D4EAC3BE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12210" yWindow="5115" windowWidth="24450" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Salão" sheetId="1" r:id="rId1"/>
-    <sheet name="Balcão" sheetId="5" r:id="rId2"/>
-    <sheet name="Cozinha" sheetId="6" r:id="rId3"/>
-    <sheet name="Escritório da Gerência 01" sheetId="7" r:id="rId4"/>
-    <sheet name="Escritório da Gerência 02" sheetId="8" r:id="rId5"/>
-    <sheet name="Escritório da Gerência 03" sheetId="9" r:id="rId6"/>
-    <sheet name="Escritório da Gerência 04" sheetId="10" r:id="rId7"/>
-    <sheet name="Escritório da Gerência 05" sheetId="11" r:id="rId8"/>
+    <sheet name="Cozinha" sheetId="6" r:id="rId2"/>
+    <sheet name="Escritório da Gerência 01" sheetId="7" r:id="rId3"/>
+    <sheet name="Escritório da Gerência 02" sheetId="8" r:id="rId4"/>
+    <sheet name="Escritório da Gerência 03" sheetId="9" r:id="rId5"/>
+    <sheet name="Escritório da Gerência 04" sheetId="10" r:id="rId6"/>
+    <sheet name="Escritório da Gerência 05" sheetId="11" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="58">
   <si>
     <t>Capacidades</t>
   </si>
@@ -74,120 +73,24 @@
     <t>FA</t>
   </si>
   <si>
-    <t>Cliente não realizou o Pedido</t>
-  </si>
-  <si>
-    <t>Salão - Atender cliente</t>
-  </si>
-  <si>
-    <t>Cliente solicita o cardápio</t>
-  </si>
-  <si>
-    <t>Cliente realiza o pedido</t>
-  </si>
-  <si>
-    <t>Cliente recebe o pedido</t>
-  </si>
-  <si>
-    <t>Cliente solicita conta</t>
-  </si>
-  <si>
-    <t>Cozinha recebe solicitação de preparo</t>
-  </si>
-  <si>
-    <t>Cliente recebe a conta</t>
-  </si>
-  <si>
     <t>x(4)</t>
   </si>
   <si>
     <t>x(5)</t>
   </si>
   <si>
-    <t>Cliente cancela pedido</t>
-  </si>
-  <si>
-    <t>Balcão - Atender cliente</t>
-  </si>
-  <si>
-    <t>Cozinha verifica pedido</t>
-  </si>
-  <si>
-    <t>Cozinha entrega pedido pronto</t>
-  </si>
-  <si>
-    <t>Cozinha não prepara o pedido</t>
-  </si>
-  <si>
     <t>Cozinha - Preparar o pedido</t>
   </si>
   <si>
-    <t>Gerente verifica produtos</t>
-  </si>
-  <si>
-    <t>Gerente realiza pedido de compra</t>
-  </si>
-  <si>
-    <t>Gerente realiza pagamento</t>
-  </si>
-  <si>
-    <t>Gerente recebe os produtos</t>
-  </si>
-  <si>
-    <t>Gerente repõe estoque</t>
-  </si>
-  <si>
-    <t>Gerente cancela pedido</t>
-  </si>
-  <si>
-    <t>Gerente solicita devolução ou troca</t>
-  </si>
-  <si>
     <t>Escritório da Gerência - Comprar</t>
   </si>
   <si>
-    <t>Gerente solicita cancelamento</t>
-  </si>
-  <si>
-    <t>Gerente recebe devolução</t>
-  </si>
-  <si>
-    <t>Fornecedor não aceita solicitação</t>
-  </si>
-  <si>
     <t>Escritório da Gerência - Solicitar cancelamento</t>
   </si>
   <si>
     <t>Escritório da Gerência - Solicitar devolução ou troca</t>
   </si>
   <si>
-    <t>Gerente verifica produto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gerente devolve produto </t>
-  </si>
-  <si>
-    <t>Fornecedor não aceita solicitaçao</t>
-  </si>
-  <si>
-    <t>Gerente elabora o contrato</t>
-  </si>
-  <si>
-    <t>Gerente envia contrato</t>
-  </si>
-  <si>
-    <t>Gerente recebe pagamento</t>
-  </si>
-  <si>
-    <t>Contratante não aceita contrato</t>
-  </si>
-  <si>
-    <t>Gerente recusa proposta</t>
-  </si>
-  <si>
-    <t>OBS: Outras planilhas no menu abaixo</t>
-  </si>
-  <si>
     <t>Escritório da Gerencia - Fechar contrato</t>
   </si>
   <si>
@@ -197,20 +100,113 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Garçom envia a comanda</t>
-  </si>
-  <si>
-    <t>Contratante faz proposta</t>
-  </si>
-  <si>
-    <t>Contratante envia lista de convidados</t>
+    <t>Link para as outras tabelas</t>
+  </si>
+  <si>
+    <t>Salão / Balcão - Atender cliente</t>
+  </si>
+  <si>
+    <t>Cozinha prepara o pedido.</t>
+  </si>
+  <si>
+    <t>Cozinha verifica pedido.</t>
+  </si>
+  <si>
+    <t>Garçom envia a comanda.</t>
+  </si>
+  <si>
+    <t>Cozinha não prepara o pedido.</t>
+  </si>
+  <si>
+    <t>Cliente cancela pedido.</t>
+  </si>
+  <si>
+    <t>Cliente não realizou o Pedido.</t>
+  </si>
+  <si>
+    <t>Caixa entrega a conta.</t>
+  </si>
+  <si>
+    <t>Cliente solicita conta.</t>
+  </si>
+  <si>
+    <t>Cozinha devolve o pedido pronto.</t>
+  </si>
+  <si>
+    <t>Garçom envia pedido para a cozinha.</t>
+  </si>
+  <si>
+    <t>Cliente realiza o pedido.</t>
+  </si>
+  <si>
+    <t>Cliente solicita o cardápio.</t>
+  </si>
+  <si>
+    <t>Gerente solicita devolução ou troca.</t>
+  </si>
+  <si>
+    <t>Gerente cancela pedido.</t>
+  </si>
+  <si>
+    <t>Gerente realiza pagamento.</t>
+  </si>
+  <si>
+    <t>Gerente realiza pedido de compra.</t>
+  </si>
+  <si>
+    <t>Gerente verifica produtos.</t>
+  </si>
+  <si>
+    <t>Fornecedor não aceita solicitação.</t>
+  </si>
+  <si>
+    <t>Gerente solicita cancelamento.</t>
+  </si>
+  <si>
+    <t>Fornecedor não aceita solicitaçao.</t>
+  </si>
+  <si>
+    <t>Gerente verifica produto.</t>
+  </si>
+  <si>
+    <t>Contratante não aceita contrato.</t>
+  </si>
+  <si>
+    <t>Gerente recusa proposta.</t>
+  </si>
+  <si>
+    <t>Gerente envia contrato.</t>
+  </si>
+  <si>
+    <t>Gerente elabora o contrato.</t>
+  </si>
+  <si>
+    <t>Contratante envia lista de convidados.</t>
+  </si>
+  <si>
+    <t>Fornecedor envia os produtos.</t>
+  </si>
+  <si>
+    <t>Gerente repõe o estoque.</t>
+  </si>
+  <si>
+    <t>Fornecedor realiza devolução.</t>
+  </si>
+  <si>
+    <t>Fornecedor confirma solicitação.</t>
+  </si>
+  <si>
+    <t>Contratante envia proposta.</t>
+  </si>
+  <si>
+    <t>Contratante envia pagamento.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,8 +245,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -289,12 +294,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF3F753"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -324,7 +323,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -552,6 +551,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -639,12 +666,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -675,15 +697,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -696,25 +709,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -723,6 +727,51 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -732,51 +781,6 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -789,7 +793,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -845,8 +872,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="454268" y="3503734"/>
-          <a:ext cx="1271954" cy="781050"/>
+          <a:off x="454268" y="3618767"/>
+          <a:ext cx="1589210" cy="781050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -885,84 +912,20 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>65941</xdr:colOff>
+      <xdr:colOff>1465732</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>8792</xdr:rowOff>
+      <xdr:rowOff>18317</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1337895</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>329635</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>27842</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Retângulo 6">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1995789" y="3504053"/>
-          <a:ext cx="1271954" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100"/>
-            <a:t>Balcão - Atender cliente</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>732307</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>8792</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>310585</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>27842</xdr:rowOff>
+      <xdr:rowOff>37367</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="8" name="Retângulo 7">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
@@ -973,8 +936,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5073702" y="3518003"/>
-          <a:ext cx="1272725" cy="781050"/>
+          <a:off x="3704107" y="3628292"/>
+          <a:ext cx="1273728" cy="781050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1012,21 +975,21 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>56485</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304135</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>11322</xdr:rowOff>
+      <xdr:rowOff>97047</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1333855</xdr:colOff>
+      <xdr:colOff>362305</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>30372</xdr:rowOff>
+      <xdr:rowOff>116097</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="9" name="Retângulo 8">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
@@ -1037,7 +1000,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1986551" y="4473033"/>
+          <a:off x="1323310" y="4659522"/>
           <a:ext cx="1277370" cy="781050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1085,21 +1048,21 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>734921</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2173196</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>16119</xdr:rowOff>
+      <xdr:rowOff>101844</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>308621</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>270521</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>35169</xdr:rowOff>
+      <xdr:rowOff>120894</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="10" name="Retângulo 9">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
@@ -1110,8 +1073,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5075008" y="4463880"/>
-          <a:ext cx="1271635" cy="781050"/>
+          <a:off x="4411571" y="4664319"/>
+          <a:ext cx="1269150" cy="781050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1171,20 +1134,20 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1606506</xdr:colOff>
+      <xdr:colOff>634956</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>16119</xdr:rowOff>
+      <xdr:rowOff>101844</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>468221</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1906496</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>35169</xdr:rowOff>
+      <xdr:rowOff>120894</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="11" name="Retângulo 10">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
@@ -1195,8 +1158,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3536354" y="4463880"/>
-          <a:ext cx="1271954" cy="781050"/>
+          <a:off x="2873331" y="4664319"/>
+          <a:ext cx="1271540" cy="781050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1243,21 +1206,21 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>438977</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>8793</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>505652</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>18318</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>399412</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>27843</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>37368</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="12" name="Retângulo 11">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
@@ -1268,8 +1231,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="438977" y="4456554"/>
-          <a:ext cx="1277370" cy="781050"/>
+          <a:off x="5153852" y="3628293"/>
+          <a:ext cx="1589210" cy="781050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1317,20 +1280,20 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1592437</xdr:colOff>
+      <xdr:colOff>11287</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>16337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>461966</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1290641</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>35387</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="13" name="Retângulo 12">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
@@ -1341,8 +1304,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3522503" y="3525548"/>
-          <a:ext cx="1280858" cy="781050"/>
+          <a:off x="2249662" y="3626312"/>
+          <a:ext cx="1279354" cy="781050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1382,76 +1345,6 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Seta para a Esquerda 2">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="742950" y="4000500"/>
-          <a:ext cx="1552575" cy="866775"/>
-        </a:xfrm>
-        <a:prstGeom prst="leftArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1400" b="1" i="1"/>
-            <a:t>VOLTAR</a:t>
-          </a:r>
-          <a:endParaRPr lang="pt-BR" sz="1100" b="1" i="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1521,7 +1414,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1591,7 +1484,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1661,7 +1554,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1731,7 +1624,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1801,7 +1694,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2192,15 +2085,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
     <col min="4" max="4" width="36.140625" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
@@ -2211,10 +2104,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="30"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2241,17 +2134,17 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="37" t="s">
+      <c r="A2" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="36" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>17</v>
+      <c r="D2" s="71" t="s">
+        <v>37</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="5" t="s">
@@ -2263,13 +2156,13 @@
       <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:10" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="33"/>
-      <c r="B3" s="38"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="3">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>18</v>
+      <c r="D3" s="71" t="s">
+        <v>36</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>11</v>
@@ -2281,13 +2174,13 @@
       <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="33"/>
-      <c r="B4" s="38"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="3">
         <v>3</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>21</v>
+      <c r="D4" s="71" t="s">
+        <v>35</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>12</v>
@@ -2299,13 +2192,13 @@
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="33"/>
-      <c r="B5" s="38"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="3">
         <v>4</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>19</v>
+      <c r="D5" s="71" t="s">
+        <v>34</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>13</v>
@@ -2317,16 +2210,16 @@
       <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="33"/>
-      <c r="B6" s="38"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="3">
         <v>5</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>20</v>
+      <c r="D6" s="71" t="s">
+        <v>33</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="10"/>
@@ -2335,16 +2228,16 @@
       <c r="J6" s="11"/>
     </row>
     <row r="7" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="33"/>
-      <c r="B7" s="36"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="3">
         <v>6</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>22</v>
+      <c r="D7" s="71" t="s">
+        <v>32</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="10"/>
@@ -2353,15 +2246,15 @@
       <c r="J7" s="11"/>
     </row>
     <row r="8" spans="1:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="33"/>
-      <c r="B8" s="35" t="s">
+      <c r="A8" s="32"/>
+      <c r="B8" s="34" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="3">
         <v>7</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>15</v>
+      <c r="D8" s="72" t="s">
+        <v>31</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="12"/>
@@ -2373,13 +2266,13 @@
       <c r="J8" s="11"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="34"/>
-      <c r="B9" s="36"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="3">
         <v>8</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>25</v>
+      <c r="D9" s="73" t="s">
+        <v>30</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="12"/>
@@ -2389,19 +2282,28 @@
         <v>12</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A11" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+    </row>
+    <row r="18" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I18" s="28"/>
+    </row>
+    <row r="19" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I19" s="28"/>
+    </row>
+    <row r="23" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I23" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2418,8 +2320,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:B1"/>
@@ -2427,217 +2329,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="4" max="4" width="35.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="11"/>
-    </row>
-    <row r="3" spans="1:10" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="41"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="11"/>
-    </row>
-    <row r="4" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="41"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="3">
-        <v>3</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="11"/>
-    </row>
-    <row r="5" spans="1:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="41"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="3">
-        <v>4</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="11"/>
-    </row>
-    <row r="6" spans="1:10" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="41"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="3">
-        <v>5</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="11"/>
-    </row>
-    <row r="7" spans="1:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="41"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="3">
-        <v>6</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="11"/>
-    </row>
-    <row r="8" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="41"/>
-      <c r="B8" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="3">
-        <v>7</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="11"/>
-    </row>
-    <row r="9" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="42"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="3">
-        <v>8</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="B8:B9"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J5"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="36.5703125" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" customWidth="1"/>
@@ -2648,10 +2340,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
+      <c r="B1" s="39"/>
       <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
@@ -2678,17 +2370,17 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="45" t="s">
+      <c r="A2" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="41" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="17">
         <v>1</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="E2" s="19"/>
       <c r="F2" s="20" t="s">
@@ -2700,8 +2392,8 @@
       <c r="J2" s="22"/>
     </row>
     <row r="3" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="44"/>
-      <c r="B3" s="45"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="41"/>
       <c r="C3" s="17">
         <v>2</v>
       </c>
@@ -2718,13 +2410,13 @@
       <c r="J3" s="22"/>
     </row>
     <row r="4" spans="1:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="44"/>
-      <c r="B4" s="45"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="41"/>
       <c r="C4" s="17">
         <v>3</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E4" s="19" t="s">
         <v>11</v>
@@ -2736,7 +2428,7 @@
       <c r="J4" s="22"/>
     </row>
     <row r="5" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="44"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="15" t="s">
         <v>14</v>
       </c>
@@ -2766,7 +2458,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J8"/>
   <sheetViews>
@@ -2776,7 +2468,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="34.85546875" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" customWidth="1"/>
@@ -2786,10 +2478,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
+      <c r="B1" s="42"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2816,17 +2508,17 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="37" t="s">
+      <c r="A2" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="36" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="5" t="s">
@@ -2838,13 +2530,13 @@
       <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="48"/>
-      <c r="B3" s="38"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="3">
         <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>11</v>
@@ -2856,13 +2548,13 @@
       <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:10" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="48"/>
-      <c r="B4" s="38"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="3">
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>12</v>
@@ -2874,13 +2566,13 @@
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
-      <c r="B5" s="38"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="3">
         <v>4</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>13</v>
@@ -2892,16 +2584,16 @@
       <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="48"/>
-      <c r="B6" s="38"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="3">
         <v>5</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="10"/>
@@ -2910,15 +2602,15 @@
       <c r="J6" s="11"/>
     </row>
     <row r="7" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="48"/>
-      <c r="B7" s="35" t="s">
+      <c r="A7" s="44"/>
+      <c r="B7" s="34" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="3">
         <v>6</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="12"/>
@@ -2930,20 +2622,20 @@
       <c r="J7" s="11"/>
     </row>
     <row r="8" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="49"/>
-      <c r="B8" s="36"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="3">
         <v>7</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="12"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="13" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="J8" s="11"/>
     </row>
@@ -2959,7 +2651,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
@@ -2969,7 +2661,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="32.85546875" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" customWidth="1"/>
     <col min="6" max="6" width="16.140625" customWidth="1"/>
@@ -2980,10 +2672,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
+      <c r="B1" s="42"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3010,17 +2702,17 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="37" t="s">
+      <c r="A2" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="36" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="5" t="s">
@@ -3032,13 +2724,13 @@
       <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="51"/>
-      <c r="B3" s="38"/>
+      <c r="A3" s="76"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="3">
         <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>11</v>
@@ -3050,15 +2742,15 @@
       <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="51"/>
-      <c r="B4" s="35" t="s">
+      <c r="A4" s="77"/>
+      <c r="B4" s="78" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="3">
         <v>6</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="12"/>
@@ -3069,39 +2761,21 @@
       </c>
       <c r="J4" s="11"/>
     </row>
-    <row r="5" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="52"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="3">
-        <v>7</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="11"/>
-    </row>
+    <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A2:A4"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:B1"/>
@@ -3109,7 +2783,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
     <col min="4" max="4" width="33.140625" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
@@ -3119,10 +2793,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="43"/>
+      <c r="A1" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="39"/>
       <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
@@ -3149,17 +2823,17 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="45" t="s">
+      <c r="A2" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="41" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="17">
         <v>1</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E2" s="19"/>
       <c r="F2" s="20" t="s">
@@ -3171,13 +2845,13 @@
       <c r="J2" s="22"/>
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="53"/>
-      <c r="B3" s="45"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="41"/>
       <c r="C3" s="17">
         <v>2</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E3" s="20" t="s">
         <v>11</v>
@@ -3189,13 +2863,13 @@
       <c r="J3" s="22"/>
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="53"/>
-      <c r="B4" s="45"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="41"/>
       <c r="C4" s="17">
         <v>3</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E4" s="19" t="s">
         <v>12</v>
@@ -3207,7 +2881,7 @@
       <c r="J4" s="22"/>
     </row>
     <row r="5" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="53"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="15" t="s">
         <v>14</v>
       </c>
@@ -3215,7 +2889,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5" s="19"/>
       <c r="F5" s="23"/>
@@ -3225,6 +2899,9 @@
         <v>11</v>
       </c>
       <c r="J5" s="22"/>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3237,17 +2914,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="34.42578125" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" customWidth="1"/>
@@ -3258,10 +2935,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
+      <c r="B1" s="48"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3288,17 +2965,17 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="56" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="37" t="s">
+      <c r="A2" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="36" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>57</v>
+      <c r="D2" s="71" t="s">
+        <v>56</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="5" t="s">
@@ -3310,13 +2987,13 @@
       <c r="J2" s="27"/>
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="57"/>
-      <c r="B3" s="38"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="3">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>47</v>
+      <c r="D3" s="71" t="s">
+        <v>50</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>11</v>
@@ -3328,13 +3005,13 @@
       <c r="J3" s="27"/>
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="57"/>
-      <c r="B4" s="38"/>
+      <c r="A4" s="50"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="3">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>48</v>
+      <c r="D4" s="71" t="s">
+        <v>49</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>12</v>
@@ -3346,13 +3023,13 @@
       <c r="J4" s="27"/>
     </row>
     <row r="5" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="57"/>
-      <c r="B5" s="38"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="3">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>49</v>
+      <c r="D5" s="71" t="s">
+        <v>57</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>13</v>
@@ -3364,15 +3041,15 @@
       <c r="J5" s="27"/>
     </row>
     <row r="6" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="57"/>
-      <c r="B6" s="35" t="s">
+      <c r="A6" s="50"/>
+      <c r="B6" s="34" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="3">
         <v>7</v>
       </c>
-      <c r="D6" s="28" t="s">
-        <v>51</v>
+      <c r="D6" s="72" t="s">
+        <v>48</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
@@ -3384,13 +3061,13 @@
       <c r="J6" s="27"/>
     </row>
     <row r="7" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="58"/>
-      <c r="B7" s="36"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="3">
         <v>8</v>
       </c>
-      <c r="D7" s="29" t="s">
-        <v>50</v>
+      <c r="D7" s="73" t="s">
+        <v>47</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -3400,6 +3077,9 @@
         <v>13</v>
       </c>
       <c r="J7" s="27"/>
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F23" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3413,11 +3093,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -3425,7 +3105,7 @@
   <cols>
     <col min="1" max="1" width="12.42578125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" customWidth="1"/>
     <col min="5" max="5" width="12.140625" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" customWidth="1"/>
@@ -3435,10 +3115,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
+      <c r="B1" s="48"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3465,8 +3145,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="71" t="s">
-        <v>54</v>
+      <c r="A2" s="64" t="s">
+        <v>22</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>9</v>
@@ -3474,8 +3154,8 @@
       <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>58</v>
+      <c r="D2" s="71" t="s">
+        <v>51</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="5" t="s">
@@ -3486,34 +3166,34 @@
       <c r="I2" s="13"/>
       <c r="J2" s="27"/>
     </row>
-    <row r="3" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="72"/>
-      <c r="B3" s="35" t="s">
+    <row r="3" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="65"/>
+      <c r="B3" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="69"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="62"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="73"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="70"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="63"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D14" s="78"/>
+      <c r="D14" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Artefatos/17. Análise dos Eventos para cada Cenário.xlsx
+++ b/Artefatos/17. Análise dos Eventos para cada Cenário.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Poison\Desktop\OPE\OPE\Artefatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDFF4A6-298C-4FFA-97D0-7A96D4EAC3BE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD1F71E-E7AE-42A4-BE32-D10EFB40B126}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Salão" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="50">
   <si>
     <t>Capacidades</t>
   </si>
@@ -115,12 +115,6 @@
     <t>Garçom envia a comanda.</t>
   </si>
   <si>
-    <t>Cozinha não prepara o pedido.</t>
-  </si>
-  <si>
-    <t>Cliente cancela pedido.</t>
-  </si>
-  <si>
     <t>Cliente não realizou o Pedido.</t>
   </si>
   <si>
@@ -145,9 +139,6 @@
     <t>Gerente solicita devolução ou troca.</t>
   </si>
   <si>
-    <t>Gerente cancela pedido.</t>
-  </si>
-  <si>
     <t>Gerente realiza pagamento.</t>
   </si>
   <si>
@@ -157,24 +148,12 @@
     <t>Gerente verifica produtos.</t>
   </si>
   <si>
-    <t>Fornecedor não aceita solicitação.</t>
-  </si>
-  <si>
     <t>Gerente solicita cancelamento.</t>
   </si>
   <si>
-    <t>Fornecedor não aceita solicitaçao.</t>
-  </si>
-  <si>
     <t>Gerente verifica produto.</t>
   </si>
   <si>
-    <t>Contratante não aceita contrato.</t>
-  </si>
-  <si>
-    <t>Gerente recusa proposta.</t>
-  </si>
-  <si>
     <t>Gerente envia contrato.</t>
   </si>
   <si>
@@ -185,9 +164,6 @@
   </si>
   <si>
     <t>Fornecedor envia os produtos.</t>
-  </si>
-  <si>
-    <t>Gerente repõe o estoque.</t>
   </si>
   <si>
     <t>Fornecedor realiza devolução.</t>
@@ -206,7 +182,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,6 +226,15 @@
       <i/>
       <sz val="18"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -323,64 +308,10 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="5">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -429,150 +360,8 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -583,239 +372,144 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1418,16 +1112,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>942975</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1443,7 +1137,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1219200" y="3733800"/>
+          <a:off x="409575" y="2581275"/>
           <a:ext cx="1552575" cy="866775"/>
         </a:xfrm>
         <a:prstGeom prst="leftArrow">
@@ -1488,16 +1182,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>942975</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1513,7 +1207,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1285875" y="2276475"/>
+          <a:off x="542925" y="1543050"/>
           <a:ext cx="1552575" cy="866775"/>
         </a:xfrm>
         <a:prstGeom prst="leftArrow">
@@ -1558,16 +1252,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>962025</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1583,7 +1277,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1409700" y="2247900"/>
+          <a:off x="590550" y="1924050"/>
           <a:ext cx="1552575" cy="866775"/>
         </a:xfrm>
         <a:prstGeom prst="leftArrow">
@@ -1628,16 +1322,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>16565</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>149086</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>521390</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>15736</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>956227</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>63361</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>537127</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>120511</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1653,8 +1347,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1242391" y="2824369"/>
-          <a:ext cx="1552575" cy="866775"/>
+          <a:off x="521390" y="1996936"/>
+          <a:ext cx="1549262" cy="781050"/>
         </a:xfrm>
         <a:prstGeom prst="leftArrow">
           <a:avLst/>
@@ -1698,16 +1392,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1723,7 +1417,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1485900" y="1952625"/>
+          <a:off x="381000" y="1314450"/>
           <a:ext cx="1552575" cy="866775"/>
         </a:xfrm>
         <a:prstGeom prst="leftArrow">
@@ -2085,10 +1779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2104,214 +1798,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="26" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="5" t="s">
+      <c r="D2" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="11"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:10" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="32"/>
-      <c r="B3" s="37"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="3">
         <v>2</v>
       </c>
-      <c r="D3" s="71" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="11"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="32"/>
-      <c r="B4" s="37"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="3">
         <v>3</v>
       </c>
-      <c r="D4" s="71" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="9" t="s">
+      <c r="D4" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="11"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
-      <c r="B5" s="37"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="3">
         <v>4</v>
       </c>
-      <c r="D5" s="71" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="D5" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="11"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="32"/>
-      <c r="B6" s="37"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="3">
         <v>5</v>
       </c>
-      <c r="D6" s="71" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="11"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="32"/>
-      <c r="B7" s="35"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="3">
         <v>6</v>
       </c>
-      <c r="D7" s="71" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="D7" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="11"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="32"/>
-      <c r="B8" s="34" t="s">
+      <c r="A8" s="29"/>
+      <c r="B8" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="3">
         <v>7</v>
       </c>
-      <c r="D8" s="72" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="13" t="s">
+      <c r="D8" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="11"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="33"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="3">
-        <v>8</v>
-      </c>
-      <c r="D9" s="73" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="J8" s="8"/>
     </row>
     <row r="11" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A11" s="74" t="s">
+      <c r="A11" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-    </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I18" s="28"/>
-    </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I19" s="28"/>
-    </row>
-    <row r="23" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I23" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+    </row>
+    <row r="17" spans="9:21" x14ac:dyDescent="0.25">
+      <c r="S17" s="24"/>
+    </row>
+    <row r="18" spans="9:21" x14ac:dyDescent="0.25">
+      <c r="I18" s="12"/>
+      <c r="S18" s="24"/>
+    </row>
+    <row r="19" spans="9:21" x14ac:dyDescent="0.25">
+      <c r="I19" s="12"/>
+    </row>
+    <row r="23" spans="9:21" x14ac:dyDescent="0.25">
+      <c r="I23" s="12"/>
+    </row>
+    <row r="26" spans="9:21" x14ac:dyDescent="0.25">
+      <c r="U26" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="B8:B9"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A2:A8"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2340,118 +2020,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="15" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="22"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="17">
+      <c r="A3" s="31"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="3">
         <v>2</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="22"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="40"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="17">
+      <c r="A4" s="32"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="3">
         <v>3</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="22"/>
-    </row>
-    <row r="5" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40"/>
-      <c r="B5" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="17">
-        <v>7</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="22"/>
-    </row>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A2:A4"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -2478,173 +2139,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="33" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="11"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="44"/>
-      <c r="B3" s="37"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="3">
         <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="11"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:10" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="44"/>
-      <c r="B4" s="37"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="3">
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="11"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="44"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="37"/>
       <c r="C5" s="3">
         <v>4</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="11"/>
-    </row>
-    <row r="6" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="44"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="3">
-        <v>5</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="11"/>
-    </row>
-    <row r="7" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="44"/>
-      <c r="B7" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="3">
-        <v>6</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="11"/>
-    </row>
-    <row r="8" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="45"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="3">
-        <v>7</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="11"/>
-    </row>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A2:A5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -2653,7 +2260,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:B1"/>
@@ -2672,104 +2279,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="75" t="s">
+    <row r="2" spans="1:10" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="19">
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="20"/>
+      <c r="F2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="11"/>
-    </row>
-    <row r="3" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="76"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="3">
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="36"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="19">
         <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="11"/>
-    </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="77"/>
-      <c r="B4" s="78" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3">
-        <v>6</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="11"/>
-    </row>
+      <c r="F3" s="9"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E12" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A2:A3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2793,121 +2385,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="15" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20" t="s">
+      <c r="D2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="22"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="17">
+      <c r="A3" s="45"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="3">
         <v>2</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="20" t="s">
+      <c r="D3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="22"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="46"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="17">
+      <c r="B4" s="26"/>
+      <c r="C4" s="3">
         <v>3</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="19" t="s">
+      <c r="D4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="22"/>
-    </row>
-    <row r="5" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="46"/>
-      <c r="B5" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="17">
-        <v>7</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="22"/>
-    </row>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E21" s="28"/>
+      <c r="E21" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A2:A4"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -2919,7 +2492,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2935,158 +2508,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="26" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="71" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="5" t="s">
+      <c r="D2" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="27"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="18"/>
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="50"/>
-      <c r="B3" s="37"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="3">
         <v>2</v>
       </c>
-      <c r="D3" s="71" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="27"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="18"/>
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="50"/>
-      <c r="B4" s="37"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="3">
         <v>3</v>
       </c>
-      <c r="D4" s="71" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="9" t="s">
+      <c r="D4" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="27"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="18"/>
     </row>
     <row r="5" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
-      <c r="B5" s="37"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="3">
         <v>4</v>
       </c>
-      <c r="D5" s="71" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="D5" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="27"/>
-    </row>
-    <row r="6" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="50"/>
-      <c r="B6" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="3">
-        <v>7</v>
-      </c>
-      <c r="D6" s="72" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="27"/>
-    </row>
-    <row r="7" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="51"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="3">
-        <v>8</v>
-      </c>
-      <c r="D7" s="73" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="27"/>
-    </row>
+      <c r="F5" s="6"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="18"/>
+    </row>
+    <row r="6" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F23" s="28"/>
+      <c r="F23" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A7"/>
     <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A2:A5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -3097,8 +2633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3115,95 +2651,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="19">
         <v>1</v>
       </c>
-      <c r="D2" s="71" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="5" t="s">
+      <c r="D2" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="20"/>
+      <c r="F2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="27"/>
-    </row>
-    <row r="3" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="65"/>
-      <c r="B3" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="62"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="22"/>
+    </row>
+    <row r="3" spans="1:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="35"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="66"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="63"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D14" s="28"/>
+      <c r="D14" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="G3:I4"/>
-    <mergeCell ref="J3:J4"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="C3:J4"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Artefatos/17. Análise dos Eventos para cada Cenário.xlsx
+++ b/Artefatos/17. Análise dos Eventos para cada Cenário.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Poison\Desktop\OPE\OPE\Artefatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD1F71E-E7AE-42A4-BE32-D10EFB40B126}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FE993F-3A83-49F1-AD8C-D4F07E39DD9A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="1545" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Salão" sheetId="1" r:id="rId1"/>
@@ -442,21 +442,24 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -472,44 +475,41 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1798,10 +1798,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
+      <c r="B1" s="25"/>
       <c r="C1" s="14" t="s">
         <v>1</v>
       </c>
@@ -2020,10 +2020,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="30"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2050,7 +2050,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="26" t="s">
@@ -2072,7 +2072,7 @@
       <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31"/>
+      <c r="A3" s="32"/>
       <c r="B3" s="26"/>
       <c r="C3" s="3">
         <v>2</v>
@@ -2090,7 +2090,7 @@
       <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="32"/>
+      <c r="A4" s="33"/>
       <c r="B4" s="26"/>
       <c r="C4" s="3">
         <v>3</v>
@@ -2139,10 +2139,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="30"/>
       <c r="C1" s="14" t="s">
         <v>1</v>
       </c>
@@ -2169,10 +2169,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="3">
@@ -2191,8 +2191,8 @@
       <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="39"/>
-      <c r="B3" s="34"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="3">
         <v>2</v>
       </c>
@@ -2209,8 +2209,8 @@
       <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:10" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39"/>
-      <c r="B4" s="34"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="3">
         <v>3</v>
       </c>
@@ -2227,8 +2227,8 @@
       <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40"/>
-      <c r="B5" s="37"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="3">
         <v>4</v>
       </c>
@@ -2279,10 +2279,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="30"/>
       <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
@@ -2309,7 +2309,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="40" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="26" t="s">
@@ -2331,7 +2331,7 @@
       <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:10" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="36"/>
+      <c r="A3" s="40"/>
       <c r="B3" s="26"/>
       <c r="C3" s="19">
         <v>2</v>
@@ -2385,10 +2385,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="30"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2415,7 +2415,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="41" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="26" t="s">
@@ -2437,7 +2437,7 @@
       <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
+      <c r="A3" s="42"/>
       <c r="B3" s="26"/>
       <c r="C3" s="3">
         <v>2</v>
@@ -2455,7 +2455,7 @@
       <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="26"/>
       <c r="C4" s="3">
         <v>3</v>
@@ -2538,7 +2538,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="44" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="26" t="s">
@@ -2560,7 +2560,7 @@
       <c r="J2" s="18"/>
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="42"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="26"/>
       <c r="C3" s="3">
         <v>2</v>
@@ -2578,7 +2578,7 @@
       <c r="J3" s="18"/>
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="42"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="26"/>
       <c r="C4" s="3">
         <v>3</v>
@@ -2596,7 +2596,7 @@
       <c r="J4" s="18"/>
     </row>
     <row r="5" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="43"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="26"/>
       <c r="C5" s="3">
         <v>4</v>
@@ -2681,7 +2681,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="47" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="16" t="s">
@@ -2703,7 +2703,7 @@
       <c r="J2" s="22"/>
     </row>
     <row r="3" spans="1:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35"/>
+      <c r="A3" s="47"/>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
@@ -2715,7 +2715,7 @@
       <c r="J3" s="26"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="35"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
       <c r="D4" s="26"/>
